--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T15:34:16-05:00</t>
+    <t>2022-07-29T16:31:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T16:31:05-05:00</t>
+    <t>2022-08-02T11:06:34-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T11:06:34-05:00</t>
+    <t>2022-08-02T15:12:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T15:12:35-05:00</t>
+    <t>2022-08-09T16:48:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T16:48:03-05:00</t>
+    <t>2022-08-09T17:12:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T17:12:26-05:00</t>
+    <t>2022-08-10T08:52:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T08:52:57-05:00</t>
+    <t>2022-08-10T09:42:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T09:42:24-05:00</t>
+    <t>2022-08-10T09:52:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T09:52:13-05:00</t>
+    <t>2022-08-10T12:44:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T12:44:20-05:00</t>
+    <t>2022-08-10T13:05:09-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T13:05:09-05:00</t>
+    <t>2022-08-10T13:28:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T13:28:25-05:00</t>
+    <t>2022-08-11T16:57:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4a</t>
+    <t>0.1.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T16:57:48-05:00</t>
+    <t>2022-08-24T16:05:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T16:05:20-05:00</t>
+    <t>2022-08-31T14:35:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T14:35:45-05:00</t>
+    <t>2022-09-02T15:43:08-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,61 +129,61 @@
     <t>1</t>
   </si>
   <si>
-    <t>$CADSR:2603692</t>
+    <t>2603692</t>
   </si>
   <si>
     <t>Acute Graft Versus Host Disease Maximum Overall Grade</t>
   </si>
   <si>
-    <t>$CADSR:2626409</t>
+    <t>2626409</t>
   </si>
   <si>
     <t>Biopsy Anatomic Site Performed Name</t>
   </si>
   <si>
-    <t>$CADSR:2797618</t>
+    <t>2797618</t>
   </si>
   <si>
     <t>Acute Graft Versus Host Disease Skin Involvement Maximum Severity Type</t>
   </si>
   <si>
-    <t>$CADSR:2797633</t>
+    <t>2797633</t>
   </si>
   <si>
     <t>Acute Graft Versus Host Disease Lower Gastrointestinal Tract Involvement Maximum Severity Type</t>
   </si>
   <si>
-    <t>$CADSR:2797671</t>
+    <t>2797671</t>
   </si>
   <si>
     <t>Acute Graft Versus Host Disease Liver Involvement Maximum Severity Type</t>
   </si>
   <si>
-    <t>$CADSR:2980753</t>
+    <t>2980753</t>
   </si>
   <si>
     <t>Therapeutic Procedure Administered Type</t>
   </si>
   <si>
-    <t>$CADSR:3005293</t>
+    <t>3005293</t>
   </si>
   <si>
     <t>Graft Versus Host Disease Diagnosis Type</t>
   </si>
   <si>
-    <t>$CADSR:5040179</t>
+    <t>5040179</t>
   </si>
   <si>
     <t>Acute Graft Versus Host Disease Stage Upper Gastrointestinal Tract Severity Type</t>
   </si>
   <si>
-    <t>$CADSR:5263856</t>
+    <t>5263856</t>
   </si>
   <si>
     <t>Post Infusion Procedure Timepoint Type</t>
   </si>
   <si>
-    <t>$CADSR:6975011</t>
+    <t>6975011</t>
   </si>
   <si>
     <t>Concomitant Medication Use Indication Reason</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T15:43:08-05:00</t>
+    <t>2022-09-08T13:29:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T13:29:45-05:00</t>
+    <t>2022-11-09T13:32:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T13:32:08-06:00</t>
+    <t>2022-11-09T14:05:34-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-cde.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T14:05:34-06:00</t>
+    <t>2022-11-10T14:39:35-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
